--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/82.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/82.xlsx
@@ -479,13 +479,13 @@
         <v>-0.05107632188902184</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.667835268847413</v>
+        <v>-1.668762366109859</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2102235186720777</v>
+        <v>-0.2081662756805377</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3188387081374316</v>
+        <v>-0.3169105347138383</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.03777329407306688</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.812752848316885</v>
+        <v>-1.811990236052615</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1951664517577153</v>
+        <v>-0.1934334567051632</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3210014104100988</v>
+        <v>-0.3188387081374316</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.0330614539768752</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.994864499622693</v>
+        <v>-1.992767119143559</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2708201068039116</v>
+        <v>-0.2683772291276529</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3532404700525795</v>
+        <v>-0.3507928703189569</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.04146268624917598</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.022051744895359</v>
+        <v>-2.020738225938633</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2431378325175964</v>
+        <v>-0.2412726198588551</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3569158047008166</v>
+        <v>-0.3547625465428773</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.05845526326208287</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.960609908495386</v>
+        <v>-1.958606969163531</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1943810162161863</v>
+        <v>-0.1931280969956309</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3701973780463518</v>
+        <v>-0.3680236576398355</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.07948041207935999</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.712773514760547</v>
+        <v>-1.711595361448254</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.171524684555779</v>
+        <v>-0.169415498933236</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3886858066451497</v>
+        <v>-0.3861972824143733</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1006787914362234</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.494276050437192</v>
+        <v>-1.491510498841067</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.05330010835488432</v>
+        <v>-0.05132628837677325</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3719650015195725</v>
+        <v>-0.369429256715157</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1190660670624006</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.214439060956749</v>
+        <v>-1.210729884897404</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.004417370523770154</v>
+        <v>-0.00211930260667115</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3218812870989059</v>
+        <v>-0.3199971862107089</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1262114727680474</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.037616900908073</v>
+        <v>-1.031479013344561</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1462540358436169</v>
+        <v>0.1465200450751167</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3174000546605628</v>
+        <v>-0.3148564397605409</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1129534712720095</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.8127076696940994</v>
+        <v>-0.8041906522287413</v>
       </c>
       <c r="F11" t="n">
-        <v>0.17538598174065</v>
+        <v>0.1743565732353194</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3045088380571102</v>
+        <v>-0.3016976399064671</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.06967843522964011</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5917169590826041</v>
+        <v>-0.5808672452794784</v>
       </c>
       <c r="F12" t="n">
-        <v>0.172234795459806</v>
+        <v>0.1697210869230888</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2575967721658645</v>
+        <v>-0.2545746554529671</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.01123006390569599</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3936549850110959</v>
+        <v>-0.3787269876646802</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.005972501415615234</v>
+        <v>-0.008363436460870979</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2063970781881957</v>
+        <v>-0.2036173604199787</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1305998573500124</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.08733512381476909</v>
+        <v>-0.07137614394390142</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1215464294162395</v>
+        <v>-0.1247936308634829</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.09607407797623051</v>
+        <v>-0.09344074398629446</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.284418988043446</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3027918114760916</v>
+        <v>0.3208410887400466</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4009584337339311</v>
+        <v>-0.4032517795936662</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03688646523828119</v>
+        <v>0.03833771086812043</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4610353453649434</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6556916205290697</v>
+        <v>0.6753526933732366</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6039706979419299</v>
+        <v>-0.6066968990600228</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07490847113242061</v>
+        <v>0.07723487139370303</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6428937121162149</v>
       </c>
       <c r="E17" t="n">
-        <v>1.14797869286883</v>
+        <v>1.16805530676102</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7099572754747118</v>
+        <v>-0.7153183846018619</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1370397279075227</v>
+        <v>0.1391095630520331</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.822737794383381</v>
       </c>
       <c r="E18" t="n">
-        <v>1.500598326518217</v>
+        <v>1.520791417825383</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9026298080748864</v>
+        <v>-0.908462335928866</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1863726352073288</v>
+        <v>0.1899440845935601</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.00062949547385</v>
       </c>
       <c r="E19" t="n">
-        <v>1.866927666714132</v>
+        <v>1.886684754724699</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.004157976446584</v>
+        <v>-1.01217681686005</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2502416090923468</v>
+        <v>0.25410582603514</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.174061633744244</v>
       </c>
       <c r="E20" t="n">
-        <v>2.177650059392737</v>
+        <v>2.198315356436294</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.217394281856991</v>
+        <v>-1.226308739150478</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3193001240202932</v>
+        <v>0.3237561721526954</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.33674554820659</v>
       </c>
       <c r="E21" t="n">
-        <v>2.439459807876923</v>
+        <v>2.459876409899314</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.24302403520913</v>
+        <v>-1.254605667903661</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4466241047614271</v>
+        <v>0.4504773035703712</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.481701347386821</v>
       </c>
       <c r="E22" t="n">
-        <v>2.662016667514113</v>
+        <v>2.681813106002711</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.349319907499248</v>
+        <v>-1.362630600198527</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4436303203927132</v>
+        <v>0.4488135653591564</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.609051391742709</v>
       </c>
       <c r="E23" t="n">
-        <v>2.734843384218453</v>
+        <v>2.755851817430453</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.457002490635231</v>
+        <v>-1.471137182344511</v>
       </c>
       <c r="G23" t="n">
-        <v>0.541099880460137</v>
+        <v>0.5468230139851863</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.720596967508711</v>
       </c>
       <c r="E24" t="n">
-        <v>2.863494263078843</v>
+        <v>2.883326904007232</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.604274802710169</v>
+        <v>-1.61705505096557</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5817567943633338</v>
+        <v>0.5875491847297203</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.815418468753349</v>
       </c>
       <c r="E25" t="n">
-        <v>2.872980876322923</v>
+        <v>2.893014991698838</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.545711847283056</v>
+        <v>-1.560595772094075</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6349932690839657</v>
+        <v>0.641166572077707</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.893107823639179</v>
       </c>
       <c r="E26" t="n">
-        <v>2.859467922166556</v>
+        <v>2.879207695966788</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.455014504485028</v>
+        <v>-1.472443618215191</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5728368280029228</v>
+        <v>0.5798065846720423</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.952442126798095</v>
       </c>
       <c r="E27" t="n">
-        <v>2.937334648097301</v>
+        <v>2.955032919097206</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.500199084390647</v>
+        <v>-1.51712136396375</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6041503644020787</v>
+        <v>0.6106620815068996</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.994513548307598</v>
       </c>
       <c r="E28" t="n">
-        <v>2.878003571338993</v>
+        <v>2.89575221095078</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.453934727367816</v>
+        <v>-1.470871960122572</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6228213792189474</v>
+        <v>0.6288734827403486</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.021202350052326</v>
       </c>
       <c r="E29" t="n">
-        <v>2.740294212435517</v>
+        <v>2.759582242747936</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.616915750273335</v>
+        <v>-1.630909567271259</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5923404989349597</v>
+        <v>0.598592502884766</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.033695067507072</v>
       </c>
       <c r="E30" t="n">
-        <v>2.701760650326955</v>
+        <v>2.719225966496908</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.60357357719163</v>
+        <v>-1.616973201971263</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5424126124073018</v>
+        <v>0.5490958975963445</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.034192271997421</v>
       </c>
       <c r="E31" t="n">
-        <v>2.589987978504272</v>
+        <v>2.606597028272237</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.647881428446684</v>
+        <v>-1.659236402387747</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5391166163672981</v>
+        <v>0.5444635593223566</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.022944435907061</v>
       </c>
       <c r="E32" t="n">
-        <v>2.5524586405951</v>
+        <v>2.568074484297524</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.697487428064036</v>
+        <v>-1.707274678960283</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5304579371810231</v>
+        <v>0.535943393818756</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.99948357583014</v>
       </c>
       <c r="E33" t="n">
-        <v>2.377544191721439</v>
+        <v>2.39270829193605</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.692426956589054</v>
+        <v>-1.701160401683591</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5269463005214012</v>
+        <v>0.5324317571591342</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.962995374175674</v>
       </c>
       <c r="E34" t="n">
-        <v>2.203152317196051</v>
+        <v>2.218716218267472</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.683810775919054</v>
+        <v>-1.692363995824202</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4695670074735059</v>
+        <v>0.4741678653650679</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.913167739816688</v>
       </c>
       <c r="E35" t="n">
-        <v>2.051290952372961</v>
+        <v>2.066584122155518</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.728826148769132</v>
+        <v>-1.735550358455329</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4067148499408482</v>
+        <v>0.4113928347693538</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.85162296070822</v>
       </c>
       <c r="E36" t="n">
-        <v>1.902687807130963</v>
+        <v>1.917348221226757</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.591101836684004</v>
+        <v>-1.599601539939028</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4110780309450937</v>
+        <v>0.4150571512837418</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.779136736972392</v>
       </c>
       <c r="E37" t="n">
-        <v>1.701325114962087</v>
+        <v>1.716297184843899</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.576337537326203</v>
+        <v>-1.584980476321266</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3249256683598218</v>
+        <v>0.3304614936094364</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.698256326591357</v>
       </c>
       <c r="E38" t="n">
-        <v>1.584106336979703</v>
+        <v>1.599028038249634</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.472179183002812</v>
+        <v>-1.481158175080272</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2789580139413566</v>
+        <v>0.2838563614468443</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.610951591092286</v>
       </c>
       <c r="E39" t="n">
-        <v>1.411238112963734</v>
+        <v>1.426139351985088</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.432504457031307</v>
+        <v>-1.442084724413104</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2663265104929186</v>
+        <v>0.2707243199178327</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.517700068196797</v>
       </c>
       <c r="E40" t="n">
-        <v>1.179767583042619</v>
+        <v>1.195232320909398</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.511789374190344</v>
+        <v>-1.519231336595854</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2907395470642922</v>
+        <v>0.2940150808557189</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.419812414863284</v>
       </c>
       <c r="E41" t="n">
-        <v>1.101120143627709</v>
+        <v>1.115150950074983</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.450910249626237</v>
+        <v>-1.458589888919063</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1906366530069324</v>
+        <v>0.1941215313414921</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.317020314103398</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9670845453533486</v>
+        <v>0.9802449192265437</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.328862380979703</v>
+        <v>-1.337722534613504</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1512924710509004</v>
+        <v>0.1545743009188123</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.210908125170052</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8827690630826347</v>
+        <v>0.8949614151962298</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.266189661626873</v>
+        <v>-1.274911301578</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1107284242758604</v>
+        <v>0.1138638703654913</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.103508586311583</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7107555314495316</v>
+        <v>0.7229888080602805</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.191594534439752</v>
+        <v>-1.200635700272503</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0954730309522141</v>
+        <v>0.09857070058293385</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9952777498484247</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5534480604667409</v>
+        <v>0.5656136542552739</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.165006203442741</v>
+        <v>-1.172654362353141</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08233626736583856</v>
+        <v>0.08484367982607055</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8893110791873352</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3812094440992919</v>
+        <v>0.3935922525265644</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.019923351965532</v>
+        <v>-1.02910696652876</v>
       </c>
       <c r="G46" t="n">
-        <v>0.007381476809499801</v>
+        <v>0.01004314314361926</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7881640243416157</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3079168177350466</v>
+        <v>0.3187602354616871</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.046596679995093</v>
+        <v>-1.053910359842217</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.03137717003340833</v>
+        <v>-0.0287753164258983</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6937980971113996</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1733885514757194</v>
+        <v>0.1841265099212327</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.9148528535613468</v>
+        <v>-0.9234044994473735</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01636102761619977</v>
+        <v>-0.01476812026544348</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6081989012109947</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1732988323858053</v>
+        <v>0.1825036962071717</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.8868904038714401</v>
+        <v>-0.8952271961474092</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1010983470114223</v>
+        <v>-0.09793771661585052</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5301642990323403</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.007044408437221003</v>
+        <v>0.002991537480192183</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.8271839235527018</v>
+        <v>-0.8357339954196071</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.1073912754583825</v>
+        <v>-0.1048460865392392</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4584945527158626</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.01029475792270692</v>
+        <v>-0.001632930698189238</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9272931136865468</v>
+        <v>-0.9335112762252452</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.1513378893250976</v>
+        <v>-0.1485046549067564</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3910038421963295</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.05922314230833881</v>
+        <v>-0.05130897416643895</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.8885092825376979</v>
+        <v>-0.8949722050497585</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1589120693367966</v>
+        <v>-0.1565258563489047</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3249439404483598</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.123548581738534</v>
+        <v>-0.1161176374668735</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.8432050771788608</v>
+        <v>-0.8497781810294125</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1952561708476294</v>
+        <v>-0.1929250485289831</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2600745290531658</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2276605024978467</v>
+        <v>-0.2198832740195</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8495971688304629</v>
+        <v>-0.8560199538549303</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2471358410857001</v>
+        <v>-0.2444474164265185</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1956145535882196</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3100635515361803</v>
+        <v>-0.3021541054516443</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8299290129002502</v>
+        <v>-0.8366744718445843</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2341486093158481</v>
+        <v>-0.233048369950059</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.131654060137004</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3400753741220205</v>
+        <v>-0.3335211585009245</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8155172938256211</v>
+        <v>-0.8222745579133649</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2375736749237984</v>
+        <v>-0.2363427919709413</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.06968824751842212</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3956949137923017</v>
+        <v>-0.3889156134368595</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8157108981775411</v>
+        <v>-0.8229010175236426</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3544146883170698</v>
+        <v>-0.3519214420289295</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.009983817423550635</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4137615052665909</v>
+        <v>-0.4078951360015032</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7173614614213102</v>
+        <v>-0.7255951554448341</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.363775380031445</v>
+        <v>-0.3613561126420058</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.04649959409167882</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5280589037598403</v>
+        <v>-0.5217061625862708</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7143047162877443</v>
+        <v>-0.7228358999251939</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4176178521137776</v>
+        <v>-0.415044330850451</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.09932399548725523</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5437959469346046</v>
+        <v>-0.5380381849888868</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.702472814552927</v>
+        <v>-0.7112637113453913</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.418755867938478</v>
+        <v>-0.4167726038456391</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1481758005810903</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5536713429016452</v>
+        <v>-0.5496670382570562</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7144007314541436</v>
+        <v>-0.7233317159484037</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4594899087786185</v>
+        <v>-0.4573760010987117</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1925705794864384</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6648207031522932</v>
+        <v>-0.6595807934974832</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7541541583817137</v>
+        <v>-0.7631024570863082</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4935249242385033</v>
+        <v>-0.4911623215374309</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2325538684497525</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7444440344224098</v>
+        <v>-0.7392749556280583</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7685690254945855</v>
+        <v>-0.7775141761609373</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5551619390095169</v>
+        <v>-0.5522295413865337</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2680590578847057</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7726126806172069</v>
+        <v>-0.7677883120104203</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.817867304373723</v>
+        <v>-0.8262159017931019</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5468825984314752</v>
+        <v>-0.5443610197991516</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2991148613736202</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.830257982896602</v>
+        <v>-0.8250873300831293</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.831304705612267</v>
+        <v>-0.839450254564998</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5847015558589669</v>
+        <v>-0.5820194272762705</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3263404466339375</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8590900781510273</v>
+        <v>-0.8536904055554053</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9381137081359284</v>
+        <v>-0.9453660012373213</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6724562699097228</v>
+        <v>-0.668514926029986</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3504816785113149</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9886255557575888</v>
+        <v>-0.9822562873832456</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9009227843378358</v>
+        <v>-0.9087519554471853</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.670556428830313</v>
+        <v>-0.6670731245148745</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.373033746787335</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.036550502953391</v>
+        <v>-1.030575526368934</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.986367625328083</v>
+        <v>-0.9935152461579093</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7335549701412517</v>
+        <v>-0.7289824445938732</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3945133293330637</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.069486066057048</v>
+        <v>-1.062731950007546</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9506767417525899</v>
+        <v>-0.9583957315234484</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7628506140269</v>
+        <v>-0.7583363271870097</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4145009077979042</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.225086513302788</v>
+        <v>-1.215935953141106</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.947601895399129</v>
+        <v>-0.9553594486384593</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7855589878899051</v>
+        <v>-0.7806905467477221</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4320006462160159</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.229694454280396</v>
+        <v>-1.220280245915896</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9897753767256989</v>
+        <v>-0.9974432108751152</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.815260728708849</v>
+        <v>-0.8103702512989678</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4450764828887444</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.207577911607</v>
+        <v>-1.19771510779293</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.080713544449285</v>
+        <v>-1.087697467290497</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7778179618513483</v>
+        <v>-0.7731258108507509</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4516949806545077</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.164571774165262</v>
+        <v>-1.154838039919138</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.15148774021945</v>
+        <v>-1.157003103220487</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7668108461360926</v>
+        <v>-0.7622698009711401</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4506374168378606</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.169259203108495</v>
+        <v>-1.158498421385723</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.143466538777301</v>
+        <v>-1.149556418757614</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7756473894830747</v>
+        <v>-0.7701540627497353</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4409404457881134</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.091422383541055</v>
+        <v>-1.08090006571516</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.172902270364746</v>
+        <v>-1.179531251894103</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7913529522754129</v>
+        <v>-0.7853889938248046</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4226756611259536</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.00230142089301</v>
+        <v>-0.9914713823289004</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.257234279836233</v>
+        <v>-1.262837000898503</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7321273347982319</v>
+        <v>-0.727191210833833</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3960783524635558</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.8914660774570612</v>
+        <v>-0.8806667322658172</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.204015906335496</v>
+        <v>-1.210187635310116</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7458354673256397</v>
+        <v>-0.7397817897851172</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3616167472553238</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.801670647615539</v>
+        <v>-0.7906131632884016</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.206195922818498</v>
+        <v>-1.21223700820605</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7053217891624812</v>
+        <v>-0.699400329228148</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3198599977688443</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6811716137843647</v>
+        <v>-0.6697804374035117</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.272167786249573</v>
+        <v>-1.277861013411318</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6824906418080148</v>
+        <v>-0.6764810368028887</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2718369199087587</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5073731444677068</v>
+        <v>-0.4951131095318957</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.185934361679555</v>
+        <v>-1.192387053067327</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.700881481221292</v>
+        <v>-0.6941619935924593</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.218513155096755</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2807143910004077</v>
+        <v>-0.2701055021228411</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.201552566410661</v>
+        <v>-1.207315837423303</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.6302489471720449</v>
+        <v>-0.6245588680485429</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1605028766577327</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1112806767071164</v>
+        <v>-0.1012006582543069</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.208375152291938</v>
+        <v>-1.214801872364209</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4943323960477305</v>
+        <v>-0.4899046802595117</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.09927581254546229</v>
       </c>
       <c r="E83" t="n">
-        <v>0.07839807152434423</v>
+        <v>0.08859141935388749</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.124103742556621</v>
+        <v>-1.130580831240773</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4517976773328221</v>
+        <v>-0.4476753212541356</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.03648071076078323</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2266911349994459</v>
+        <v>0.2369836460336311</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.096503317264613</v>
+        <v>-1.103388863910743</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3599221812225009</v>
+        <v>-0.3558627859086664</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.02546550935215885</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4404429316720793</v>
+        <v>0.4488623599519167</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.077017747552472</v>
+        <v>-1.083044666767932</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2814825123316024</v>
+        <v>-0.278753163175267</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.08306936866313362</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5984539892020915</v>
+        <v>0.6068797135584141</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9681412709129816</v>
+        <v>-0.974440495436427</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2244054309549969</v>
+        <v>-0.2212983172095493</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1339352906541794</v>
       </c>
       <c r="E87" t="n">
-        <v>0.828062454502708</v>
+        <v>0.8348134225139666</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9242772930501347</v>
+        <v>-0.9291103187620885</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1661572793521436</v>
+        <v>-0.163117848428912</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1754134540884289</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9369688375055026</v>
+        <v>0.9434270379601993</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7486624056674956</v>
+        <v>-0.7540707353682848</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1012982474398275</v>
+        <v>-0.09896240306381726</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2049551871207544</v>
       </c>
       <c r="E89" t="n">
-        <v>1.184226779213264</v>
+        <v>1.189488725135772</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5898863748445314</v>
+        <v>-0.59593533032769</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02550315895303462</v>
+        <v>0.02612332248682709</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2214502058608822</v>
       </c>
       <c r="E90" t="n">
-        <v>1.356984821890742</v>
+        <v>1.36109615983558</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.517964719134939</v>
+        <v>-0.5237980339984794</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04730961985953435</v>
+        <v>0.04757405507191286</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2246322920326474</v>
       </c>
       <c r="E91" t="n">
-        <v>1.439771931594673</v>
+        <v>1.443174960934925</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2982363718587269</v>
+        <v>-0.3044065268142256</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07816826473263433</v>
+        <v>0.07793530990268183</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2147851070722495</v>
       </c>
       <c r="E92" t="n">
-        <v>1.583311457323447</v>
+        <v>1.584811497546046</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.210576098955249</v>
+        <v>-0.2158443409542424</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09116651463633542</v>
+        <v>0.0908957833474717</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.192583126994797</v>
       </c>
       <c r="E93" t="n">
-        <v>1.596432480718609</v>
+        <v>1.597225786355745</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.005287803097849435</v>
+        <v>-0.01043956768186659</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1189904506435677</v>
+        <v>0.1181955709873108</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1596654686047676</v>
       </c>
       <c r="E94" t="n">
-        <v>1.545871838504189</v>
+        <v>1.546693476485507</v>
       </c>
       <c r="F94" t="n">
-        <v>0.152578444673003</v>
+        <v>0.1473353869799505</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1337563240204894</v>
+        <v>0.1324546102071738</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1187844379098515</v>
       </c>
       <c r="E95" t="n">
-        <v>1.540175463304201</v>
+        <v>1.540545357797707</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2029879810517789</v>
+        <v>0.1995786556350416</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1458447908720787</v>
+        <v>0.1443006781140827</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.07237953993633996</v>
       </c>
       <c r="E96" t="n">
-        <v>1.512076073950742</v>
+        <v>1.511013611043863</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2932658477539798</v>
+        <v>0.2898738365475768</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05274313386626432</v>
+        <v>0.05241258985079118</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.02427126573639796</v>
       </c>
       <c r="E97" t="n">
-        <v>1.353462167097271</v>
+        <v>1.352887650117996</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3080411652456294</v>
+        <v>0.3052567254200484</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03198024763718695</v>
+        <v>0.03170164625271673</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.02248483797847248</v>
       </c>
       <c r="E98" t="n">
-        <v>1.292514572701387</v>
+        <v>1.291245913289619</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2609339209833424</v>
+        <v>0.25822031201822</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02950274154025967</v>
+        <v>0.02868267757806201</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.06391071931126066</v>
       </c>
       <c r="E99" t="n">
-        <v>1.188731621938426</v>
+        <v>1.18741731597214</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2314116183442267</v>
+        <v>0.2297211218079498</v>
       </c>
       <c r="G99" t="n">
-        <v>0.06433578469464389</v>
+        <v>0.0630088865753874</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1002875729414269</v>
       </c>
       <c r="E100" t="n">
-        <v>1.07219911629293</v>
+        <v>1.070889532384008</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2295605718575771</v>
+        <v>0.2273364828391792</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0268316310914124</v>
+        <v>0.02588407158038939</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1295515831893667</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9109203950670975</v>
+        <v>0.9096344214449948</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1943843925347493</v>
+        <v>0.1929441650387592</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.01335465109451546</v>
+        <v>-0.01379695046760095</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1562954970671515</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7399960846659345</v>
+        <v>0.7394168456292959</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1555926912902939</v>
+        <v>0.1550433586169599</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.0361008014164317</v>
+        <v>-0.03692086537862935</v>
       </c>
     </row>
   </sheetData>
